--- a/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/AssemblyBOM.xlsx
+++ b/2-Electrical/0 - Development Drawings/1 - Main Board/2 - eeBOM/AssemblyBOM.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Purchase BOM" sheetId="6" r:id="rId2"/>
-    <sheet name="Mouser import" sheetId="7" r:id="rId3"/>
-    <sheet name="Mouser Prices" sheetId="8" r:id="rId4"/>
-    <sheet name="for import" sheetId="5" r:id="rId5"/>
-    <sheet name="order2" sheetId="4" r:id="rId6"/>
-    <sheet name="approx bom cost" sheetId="3" r:id="rId7"/>
+    <sheet name="AssemblyBOM_only_placed" sheetId="9" r:id="rId2"/>
+    <sheet name="Purchase BOM" sheetId="6" r:id="rId3"/>
+    <sheet name="Mouser import" sheetId="7" r:id="rId4"/>
+    <sheet name="Mouser AllPCB Prices" sheetId="8" r:id="rId5"/>
+    <sheet name="for import" sheetId="5" r:id="rId6"/>
+    <sheet name="order2" sheetId="4" r:id="rId7"/>
+    <sheet name="approx bom cost" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assembly BOM'!$A$1:$L$209</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Purchase BOM'!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Purchase BOM'!$A$1:$F$46</definedName>
     <definedName name="AssemblyBOM" localSheetId="0">'Assembly BOM'!$A$1:$K$209</definedName>
-    <definedName name="FRA_Sensor_v1_ListByValues" localSheetId="1">'Purchase BOM'!$A$1:$E$46</definedName>
+    <definedName name="FRA_Sensor_v1_ListByValues" localSheetId="2">'Purchase BOM'!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="451">
   <si>
     <t>Part</t>
   </si>
@@ -1412,6 +1413,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>AllPCB (MicroSD used)</t>
+  </si>
+  <si>
+    <t>BOM cost</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1612,15 +1619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1633,6 +1631,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1923,10 +1933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection sqref="A1:H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1969,7 @@
       <c r="D1" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>295</v>
       </c>
       <c r="F1" t="s">
@@ -3010,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -3328,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>157</v>
       </c>
@@ -5341,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>181</v>
       </c>
@@ -6104,7 +6115,7 @@
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -6712,7 +6723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -6739,7 +6750,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>174</v>
       </c>
@@ -6793,7 +6804,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>190</v>
       </c>
@@ -7271,7 +7282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -7295,7 +7306,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>91</v>
       </c>
@@ -7319,7 +7330,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -7683,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>111</v>
       </c>
@@ -7707,6 +7718,9 @@
       </c>
       <c r="I181" t="s">
         <v>279</v>
+      </c>
+      <c r="J181" t="s">
+        <v>285</v>
       </c>
       <c r="K181">
         <v>14</v>
@@ -7870,7 +7884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>227</v>
       </c>
@@ -7897,7 +7911,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>231</v>
       </c>
@@ -7924,7 +7938,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>232</v>
       </c>
@@ -7951,7 +7965,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>233</v>
       </c>
@@ -7978,7 +7992,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>234</v>
       </c>
@@ -8005,7 +8019,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>235</v>
       </c>
@@ -8032,7 +8046,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>236</v>
       </c>
@@ -8059,7 +8073,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>237</v>
       </c>
@@ -8086,7 +8100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>238</v>
       </c>
@@ -8113,7 +8127,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -8140,7 +8154,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -8167,7 +8181,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>241</v>
       </c>
@@ -8194,7 +8208,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -8221,7 +8235,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>243</v>
       </c>
@@ -8248,7 +8262,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -8275,7 +8289,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -8302,7 +8316,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>246</v>
       </c>
@@ -8329,7 +8343,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>247</v>
       </c>
@@ -8356,7 +8370,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>248</v>
       </c>
@@ -8383,7 +8397,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>249</v>
       </c>
@@ -8511,6 +8525,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L209">
+    <filterColumn colId="9">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A2:L209">
       <sortCondition ref="B1:B209"/>
     </sortState>
@@ -8591,6 +8608,4647 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2">
+        <v>79.063850000000002</v>
+      </c>
+      <c r="G2">
+        <v>19.3675</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3">
+        <v>85.081043750000006</v>
+      </c>
+      <c r="G3">
+        <v>10.003196875</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4">
+        <v>83.493543750000001</v>
+      </c>
+      <c r="G4">
+        <v>10.003196875</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5">
+        <v>86.461600000000004</v>
+      </c>
+      <c r="G5">
+        <v>24.294465625000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6">
+        <v>64.566800000000001</v>
+      </c>
+      <c r="G6">
+        <v>55.42915</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7">
+        <v>28.530550000000002</v>
+      </c>
+      <c r="G7">
+        <v>11.1252</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8">
+        <v>46.126399999999997</v>
+      </c>
+      <c r="G8">
+        <v>11.874499999999999</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9">
+        <v>72.110600000000005</v>
+      </c>
+      <c r="G9">
+        <v>42.189399999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10">
+        <v>91.751149999999996</v>
+      </c>
+      <c r="G10">
+        <v>11.436349999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11">
+        <v>15.830550000000001</v>
+      </c>
+      <c r="G11">
+        <v>50.895249999999997</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12">
+        <v>72.110600000000005</v>
+      </c>
+      <c r="G12">
+        <v>44.469050000000003</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13">
+        <v>59.817</v>
+      </c>
+      <c r="G13">
+        <v>22.840949999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14">
+        <v>55.835549999999998</v>
+      </c>
+      <c r="G14">
+        <v>46.170850000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15">
+        <v>59.289949999999997</v>
+      </c>
+      <c r="G15">
+        <v>46.132750000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="3">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16">
+        <v>88.925399999999996</v>
+      </c>
+      <c r="G16">
+        <v>36.2331</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="3">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17">
+        <v>42.85615</v>
+      </c>
+      <c r="G17">
+        <v>36.779200000000003</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="3">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18">
+        <v>90.989149999999995</v>
+      </c>
+      <c r="G18">
+        <v>36.258499999999998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="3">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19">
+        <v>97.415350000000004</v>
+      </c>
+      <c r="G19">
+        <v>35.94735</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="3">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20">
+        <v>86.848950000000002</v>
+      </c>
+      <c r="G20">
+        <v>36.2331</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="3">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21">
+        <v>84.778850000000006</v>
+      </c>
+      <c r="G21">
+        <v>36.2331</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22">
+        <v>77.165199999999999</v>
+      </c>
+      <c r="G22">
+        <v>57.162700000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23">
+        <v>77.241399999999999</v>
+      </c>
+      <c r="G23">
+        <v>43.688000000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24">
+        <v>77.215999999999994</v>
+      </c>
+      <c r="G24">
+        <v>52.603400000000001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25">
+        <v>78.492350000000002</v>
+      </c>
+      <c r="G25">
+        <v>28.20035</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26">
+        <v>77.228700000000003</v>
+      </c>
+      <c r="G26">
+        <v>54.870350000000002</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27">
+        <v>76.847700000000003</v>
+      </c>
+      <c r="G27">
+        <v>19.3675</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="3">
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F28">
+        <v>4.04495</v>
+      </c>
+      <c r="G28">
+        <v>56.629300000000001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="3">
+        <v>330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29">
+        <v>4.04495</v>
+      </c>
+      <c r="G29">
+        <v>62.8523</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1140084168</v>
+      </c>
+      <c r="F30">
+        <v>63.183275000000002</v>
+      </c>
+      <c r="G30">
+        <v>7.4904124999999997</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="2">
+        <v>61300411121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31" s="3">
+        <v>61300411121</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="2">
+        <v>61300411121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="3">
+        <v>61300411121</v>
+      </c>
+      <c r="F32">
+        <v>61.379100000000001</v>
+      </c>
+      <c r="G32">
+        <v>39.827199999999998</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2">
+        <v>61300411121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="3">
+        <v>61300411121</v>
+      </c>
+      <c r="F33">
+        <v>53.085999999999999</v>
+      </c>
+      <c r="G33">
+        <v>39.827199999999998</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F34">
+        <v>84.480400000000003</v>
+      </c>
+      <c r="G34">
+        <v>61.067950000000003</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F35">
+        <v>38.588949999999997</v>
+      </c>
+      <c r="G35">
+        <v>34.309049999999999</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36">
+        <v>13.944599999999999</v>
+      </c>
+      <c r="G36">
+        <v>37.865049999999997</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F37">
+        <v>15.3162</v>
+      </c>
+      <c r="G37">
+        <v>40.830500000000001</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38">
+        <v>46.126399999999997</v>
+      </c>
+      <c r="G38">
+        <v>13.639799999999999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39">
+        <v>77.006450000000001</v>
+      </c>
+      <c r="G39">
+        <v>23.799800000000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40">
+        <v>56.629300000000001</v>
+      </c>
+      <c r="G40">
+        <v>62.23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F41">
+        <v>79.495649999999998</v>
+      </c>
+      <c r="G41">
+        <v>11.8872</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42">
+        <v>40.995600000000003</v>
+      </c>
+      <c r="G42">
+        <v>5.3467000000000002</v>
+      </c>
+      <c r="H42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43">
+        <v>39.750999999999998</v>
+      </c>
+      <c r="G43">
+        <v>17.9451</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44">
+        <v>28.587700000000002</v>
+      </c>
+      <c r="G44">
+        <v>13.0175</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45">
+        <v>22.898099999999999</v>
+      </c>
+      <c r="G45">
+        <v>3.4734500000000001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F46">
+        <v>60.051949999999998</v>
+      </c>
+      <c r="G46">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47">
+        <v>55.69585</v>
+      </c>
+      <c r="G47">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48">
+        <v>21.158200000000001</v>
+      </c>
+      <c r="G48">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49">
+        <v>12.13485</v>
+      </c>
+      <c r="G49">
+        <v>56.629300000000001</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F50">
+        <v>58.839100000000002</v>
+      </c>
+      <c r="G50">
+        <v>42.367199999999997</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51">
+        <v>21.95195</v>
+      </c>
+      <c r="G51">
+        <v>16.338550000000001</v>
+      </c>
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52">
+        <v>12.9032</v>
+      </c>
+      <c r="G52">
+        <v>40.830500000000001</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53">
+        <v>55.625999999999998</v>
+      </c>
+      <c r="G53">
+        <v>42.367199999999997</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54">
+        <v>59.804299999999998</v>
+      </c>
+      <c r="G54">
+        <v>20.389849999999999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>307</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55">
+        <v>24.714200000000002</v>
+      </c>
+      <c r="G55">
+        <v>25.67305</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56">
+        <v>45.116750000000003</v>
+      </c>
+      <c r="G56">
+        <v>47.294800000000002</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>307</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F57">
+        <v>45.116750000000003</v>
+      </c>
+      <c r="G57">
+        <v>43.561</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F58">
+        <v>79.654399999999995</v>
+      </c>
+      <c r="G58">
+        <v>62.541150000000002</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59">
+        <v>24.580850000000002</v>
+      </c>
+      <c r="G59">
+        <v>62.23</v>
+      </c>
+      <c r="H59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60">
+        <v>16.802099999999999</v>
+      </c>
+      <c r="G60">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61">
+        <v>27.3812</v>
+      </c>
+      <c r="G61">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62">
+        <v>31.737300000000001</v>
+      </c>
+      <c r="G62">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63">
+        <v>76.231750000000005</v>
+      </c>
+      <c r="G63">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64">
+        <v>71.875649999999993</v>
+      </c>
+      <c r="G64">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>307</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65">
+        <v>82.765900000000002</v>
+      </c>
+      <c r="G65">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66">
+        <v>87.122</v>
+      </c>
+      <c r="G66">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67">
+        <v>57.873899999999999</v>
+      </c>
+      <c r="G67">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68">
+        <v>53.517800000000001</v>
+      </c>
+      <c r="G68">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69">
+        <v>37.762815625000002</v>
+      </c>
+      <c r="G69">
+        <v>3.5807656250000002</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70">
+        <v>64.839849999999998</v>
+      </c>
+      <c r="G70">
+        <v>48.164749999999998</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71">
+        <v>46.596299999999999</v>
+      </c>
+      <c r="G71">
+        <v>8.8836499999999994</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72">
+        <v>86.36</v>
+      </c>
+      <c r="G72">
+        <v>13.6525</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73">
+        <v>19.3675</v>
+      </c>
+      <c r="G73">
+        <v>3.4925000000000002</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74">
+        <v>28.346399999999999</v>
+      </c>
+      <c r="G74">
+        <v>8.2486499999999996</v>
+      </c>
+      <c r="H74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75">
+        <v>55.175150000000002</v>
+      </c>
+      <c r="G75">
+        <v>22.453600000000002</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76">
+        <v>7.1564500000000004</v>
+      </c>
+      <c r="G76">
+        <v>65.341499999999996</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77">
+        <v>96.069149999999993</v>
+      </c>
+      <c r="G77">
+        <v>63.455550000000002</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78">
+        <v>12.13485</v>
+      </c>
+      <c r="G78">
+        <v>65.341499999999996</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79">
+        <v>40.4495</v>
+      </c>
+      <c r="G79">
+        <v>65.541150000000002</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80">
+        <v>35.782249999999998</v>
+      </c>
+      <c r="G80">
+        <v>65.652649999999994</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81">
+        <v>63.163449999999997</v>
+      </c>
+      <c r="G81">
+        <v>65.652649999999994</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82">
+        <v>67.830699999999993</v>
+      </c>
+      <c r="G82">
+        <v>65.652649999999994</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83">
+        <v>98.012249999999995</v>
+      </c>
+      <c r="G83">
+        <v>87.122</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84">
+        <v>98.123750000000001</v>
+      </c>
+      <c r="G84">
+        <v>81.210149999999999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F85">
+        <v>45.116750000000003</v>
+      </c>
+      <c r="G85">
+        <v>65.652649999999994</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86">
+        <v>49.783999999999999</v>
+      </c>
+      <c r="G86">
+        <v>65.652649999999994</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87">
+        <v>23.33625</v>
+      </c>
+      <c r="G87">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88">
+        <v>18.980149999999998</v>
+      </c>
+      <c r="G88">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89">
+        <v>25.514299999999999</v>
+      </c>
+      <c r="G89">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F90">
+        <v>29.559249999999999</v>
+      </c>
+      <c r="G90">
+        <v>68.764150000000001</v>
+      </c>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91">
+        <v>78.409800000000004</v>
+      </c>
+      <c r="G91">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92">
+        <v>74.053700000000006</v>
+      </c>
+      <c r="G92">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F93">
+        <v>80.587850000000003</v>
+      </c>
+      <c r="G93">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F94">
+        <v>84.943950000000001</v>
+      </c>
+      <c r="G94">
+        <v>69.075299999999999</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F95">
+        <v>75.40625</v>
+      </c>
+      <c r="G95">
+        <v>23.799800000000001</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>313</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F96">
+        <v>32.086550000000003</v>
+      </c>
+      <c r="G96">
+        <v>36.931600000000003</v>
+      </c>
+      <c r="H96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F97">
+        <v>39.750999999999998</v>
+      </c>
+      <c r="G97">
+        <v>16.338550000000001</v>
+      </c>
+      <c r="H97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>313</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F98">
+        <v>4.04495</v>
+      </c>
+      <c r="G98">
+        <v>66.274950000000004</v>
+      </c>
+      <c r="H98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>313</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F99">
+        <v>96.856549999999999</v>
+      </c>
+      <c r="G99">
+        <v>60.490099999999998</v>
+      </c>
+      <c r="H99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>313</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100">
+        <v>95.243650000000002</v>
+      </c>
+      <c r="G100">
+        <v>60.490099999999998</v>
+      </c>
+      <c r="H100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101">
+        <v>22.0091</v>
+      </c>
+      <c r="G101">
+        <v>14.312900000000001</v>
+      </c>
+      <c r="H101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F102">
+        <v>25.261637499999999</v>
+      </c>
+      <c r="G102">
+        <v>21.750084375</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>313</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F103">
+        <v>10.229850000000001</v>
+      </c>
+      <c r="G103">
+        <v>52.451000000000001</v>
+      </c>
+      <c r="H103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>314</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F104">
+        <v>40.995600000000003</v>
+      </c>
+      <c r="G104">
+        <v>3.5813999999999999</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F105">
+        <v>22.942550000000001</v>
+      </c>
+      <c r="G105">
+        <v>5.4229000000000003</v>
+      </c>
+      <c r="H105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106">
+        <v>11.2395</v>
+      </c>
+      <c r="G106">
+        <v>49.917349999999999</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" t="s">
+        <v>143</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F107">
+        <v>97.180400000000006</v>
+      </c>
+      <c r="G107">
+        <v>20.212050000000001</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108">
+        <v>96.545400000000001</v>
+      </c>
+      <c r="G108">
+        <v>17.037050000000001</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F109">
+        <v>65.912999999999997</v>
+      </c>
+      <c r="G109">
+        <v>44.735750000000003</v>
+      </c>
+      <c r="H109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F110">
+        <v>17.684750000000001</v>
+      </c>
+      <c r="G110">
+        <v>33.172400000000003</v>
+      </c>
+      <c r="H110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F111">
+        <v>87.052149999999997</v>
+      </c>
+      <c r="G111">
+        <v>62.547499999999999</v>
+      </c>
+      <c r="H111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="F112">
+        <v>89.592150000000004</v>
+      </c>
+      <c r="G112">
+        <v>62.547499999999999</v>
+      </c>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>143</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F113">
+        <v>46.361350000000002</v>
+      </c>
+      <c r="G113">
+        <v>49.783999999999999</v>
+      </c>
+      <c r="H113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F114">
+        <v>49.783999999999999</v>
+      </c>
+      <c r="G114">
+        <v>49.783999999999999</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F115">
+        <v>70.292209374999999</v>
+      </c>
+      <c r="G115">
+        <v>51.451465624999997</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F116">
+        <v>88.322149999999993</v>
+      </c>
+      <c r="G116">
+        <v>59.69</v>
+      </c>
+      <c r="H116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F117">
+        <v>46.596299999999999</v>
+      </c>
+      <c r="G117">
+        <v>4.6386750000000001</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F118">
+        <v>28.347671875</v>
+      </c>
+      <c r="G118">
+        <v>6.1652156250000001</v>
+      </c>
+      <c r="H118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F119">
+        <v>56.629300000000001</v>
+      </c>
+      <c r="G119">
+        <v>65.030349999999999</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C120" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F120">
+        <v>79.698849999999993</v>
+      </c>
+      <c r="G120">
+        <v>65.239900000000006</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C121" t="s">
+        <v>97</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F121">
+        <v>24.5364</v>
+      </c>
+      <c r="G121">
+        <v>65.087500000000006</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F122">
+        <v>95.8977</v>
+      </c>
+      <c r="G122">
+        <v>71.659750000000003</v>
+      </c>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>223</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F123">
+        <v>93.052899999999994</v>
+      </c>
+      <c r="G123">
+        <v>18.942049999999998</v>
+      </c>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F124">
+        <v>93.052899999999994</v>
+      </c>
+      <c r="G124">
+        <v>15.13205</v>
+      </c>
+      <c r="H124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125">
+        <v>33.951359375000003</v>
+      </c>
+      <c r="G125">
+        <v>41.523143750000003</v>
+      </c>
+      <c r="H125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" t="s">
+        <v>303</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F126">
+        <v>42.665662500000003</v>
+      </c>
+      <c r="G126">
+        <v>45.152759375000002</v>
+      </c>
+      <c r="H126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127">
+        <v>11.823700000000001</v>
+      </c>
+      <c r="G127">
+        <v>43.872149999999998</v>
+      </c>
+      <c r="H127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C128" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128">
+        <v>11.823700000000001</v>
+      </c>
+      <c r="G128">
+        <v>46.672499999999999</v>
+      </c>
+      <c r="H128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" t="s">
+        <v>303</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129">
+        <v>5.6006999999999998</v>
+      </c>
+      <c r="G129">
+        <v>35.159950000000002</v>
+      </c>
+      <c r="H129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" t="s">
+        <v>303</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130">
+        <v>5.6006999999999998</v>
+      </c>
+      <c r="G130">
+        <v>30.181550000000001</v>
+      </c>
+      <c r="H130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C131" t="s">
+        <v>303</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F131">
+        <v>2.0447000000000002</v>
+      </c>
+      <c r="G131">
+        <v>53.555900000000001</v>
+      </c>
+      <c r="H131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" t="s">
+        <v>303</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F132">
+        <v>40.138350000000003</v>
+      </c>
+      <c r="G132">
+        <v>45.116750000000003</v>
+      </c>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" t="s">
+        <v>303</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F133">
+        <v>33.915349999999997</v>
+      </c>
+      <c r="G133">
+        <v>39.204900000000002</v>
+      </c>
+      <c r="H133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E134" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134">
+        <v>90</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C135" t="s">
+        <v>257</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E135" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" t="s">
+        <v>257</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E136" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F136">
+        <v>32.5</v>
+      </c>
+      <c r="G136">
+        <v>90</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C137" t="s">
+        <v>257</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E137" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F137">
+        <v>32.5</v>
+      </c>
+      <c r="G137">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>257</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E138" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F138">
+        <v>67.5</v>
+      </c>
+      <c r="G138">
+        <v>90</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" t="s">
+        <v>257</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E139" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F139">
+        <v>67.5</v>
+      </c>
+      <c r="G139">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F140">
+        <v>85</v>
+      </c>
+      <c r="G140">
+        <v>90</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F141">
+        <v>85</v>
+      </c>
+      <c r="G141">
+        <v>77</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F142">
+        <v>50</v>
+      </c>
+      <c r="G142">
+        <v>90</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C143" t="s">
+        <v>257</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E143" s="3">
+        <v>61200621621</v>
+      </c>
+      <c r="F143">
+        <v>50</v>
+      </c>
+      <c r="G143">
+        <v>77</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" t="s">
+        <v>318</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F144">
+        <v>83.82</v>
+      </c>
+      <c r="G144">
+        <v>18.0975</v>
+      </c>
+      <c r="H144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C145" t="s">
+        <v>272</v>
+      </c>
+      <c r="D145" t="s">
+        <v>320</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F145">
+        <v>91.09</v>
+      </c>
+      <c r="G145">
+        <v>48.171100000000003</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F146">
+        <v>27.305</v>
+      </c>
+      <c r="G146">
+        <v>26.67</v>
+      </c>
+      <c r="H146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F147">
+        <v>29.438600000000001</v>
+      </c>
+      <c r="G147">
+        <v>34.359850000000002</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>123</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F148">
+        <v>18.281649999999999</v>
+      </c>
+      <c r="G148">
+        <v>40.786050000000003</v>
+      </c>
+      <c r="H148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" t="s">
+        <v>125</v>
+      </c>
+      <c r="D149" t="s">
+        <v>79</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F149">
+        <v>7.1564500000000004</v>
+      </c>
+      <c r="G149">
+        <v>69.186800000000005</v>
+      </c>
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" t="s">
+        <v>79</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150">
+        <v>12.13485</v>
+      </c>
+      <c r="G150">
+        <v>69.186800000000005</v>
+      </c>
+      <c r="H150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>133</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C151" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" t="s">
+        <v>79</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F151">
+        <v>40.480615624999999</v>
+      </c>
+      <c r="G151">
+        <v>69.373490625000002</v>
+      </c>
+      <c r="H151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F152">
+        <v>35.782249999999998</v>
+      </c>
+      <c r="G152">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" t="s">
+        <v>125</v>
+      </c>
+      <c r="D153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F153">
+        <v>63.163449999999997</v>
+      </c>
+      <c r="G153">
+        <v>69.186800000000005</v>
+      </c>
+      <c r="H153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>136</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C154" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" t="s">
+        <v>79</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F154">
+        <v>67.706243749999999</v>
+      </c>
+      <c r="G154">
+        <v>69.168646874999993</v>
+      </c>
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>137</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F155">
+        <v>94.900750000000002</v>
+      </c>
+      <c r="G155">
+        <v>87.122</v>
+      </c>
+      <c r="H155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C156" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" t="s">
+        <v>79</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F156">
+        <v>94.900750000000002</v>
+      </c>
+      <c r="G156">
+        <v>81.210149999999999</v>
+      </c>
+      <c r="H156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C157" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F157">
+        <v>45.116750000000003</v>
+      </c>
+      <c r="G157">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F158">
+        <v>49.783999999999999</v>
+      </c>
+      <c r="G158">
+        <v>69.386449999999996</v>
+      </c>
+      <c r="H158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F159">
+        <v>91.344750000000005</v>
+      </c>
+      <c r="G159">
+        <v>26.816050000000001</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F160">
+        <v>6.1467999999999998</v>
+      </c>
+      <c r="G160">
+        <v>50.8889</v>
+      </c>
+      <c r="H160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F161">
+        <v>76.815950000000001</v>
+      </c>
+      <c r="G161">
+        <v>34.836100000000002</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>98</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162">
+        <v>7.7787499999999996</v>
+      </c>
+      <c r="G162">
+        <v>59.429650000000002</v>
+      </c>
+      <c r="H162" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>268</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F163">
+        <v>47.917099999999998</v>
+      </c>
+      <c r="G163">
+        <v>45.427900000000001</v>
+      </c>
+      <c r="H163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>103</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F164">
+        <v>38.271450000000002</v>
+      </c>
+      <c r="G164">
+        <v>56.318150000000003</v>
+      </c>
+      <c r="H164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F165">
+        <v>80.535496875000007</v>
+      </c>
+      <c r="G165">
+        <v>8.7968656250000006</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F166">
+        <v>88.035834374999993</v>
+      </c>
+      <c r="G166">
+        <v>10.253134375</v>
+      </c>
+      <c r="H166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F167">
+        <v>15.944850000000001</v>
+      </c>
+      <c r="G167">
+        <v>47.923450000000003</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F168">
+        <v>63.665100000000002</v>
+      </c>
+      <c r="G168">
+        <v>52.381149999999998</v>
+      </c>
+      <c r="H168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>126</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>357</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F169">
+        <v>35.039299999999997</v>
+      </c>
+      <c r="G169">
+        <v>34.334449999999997</v>
+      </c>
+      <c r="H169" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>391</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F170">
+        <v>10.795</v>
+      </c>
+      <c r="G170">
+        <v>23.495000000000001</v>
+      </c>
+      <c r="H170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>273</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F171">
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="G171">
+        <v>42.430700000000002</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>250</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F172">
+        <v>24.358599999999999</v>
+      </c>
+      <c r="G172">
+        <v>9.98855</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>258</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F173">
+        <v>42.259250000000002</v>
+      </c>
+      <c r="G173">
+        <v>10.344150000000001</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>119</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F174">
+        <v>36.169600000000003</v>
+      </c>
+      <c r="G174">
+        <v>9.1821000000000002</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" t="s">
+        <v>121</v>
+      </c>
+      <c r="D175" t="s">
+        <v>120</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F175">
+        <v>18.008600000000001</v>
+      </c>
+      <c r="G175">
+        <v>8.97255</v>
+      </c>
+      <c r="H175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>113</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C176" t="s">
+        <v>115</v>
+      </c>
+      <c r="D176" t="s">
+        <v>325</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176">
+        <v>84.128543750000006</v>
+      </c>
+      <c r="G176">
+        <v>5.2406968750000003</v>
+      </c>
+      <c r="H176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW06030000Z0EAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSr3uWtPOEHS3tdN2qpApWZcw%3D%3D"/>
+    <hyperlink ref="E3:E13" r:id="rId2" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW06030000Z0EAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSr3uWtPOEHS3tdN2qpApWZcw%3D%3D"/>
+    <hyperlink ref="E14" r:id="rId3" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310R0FKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrfM7ggZa1wbnUen01Os%2FjjA%3D%3D"/>
+    <hyperlink ref="E15" r:id="rId4" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310R0FKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrfM7ggZa1wbnUen01Os%2FjjA%3D%3D"/>
+    <hyperlink ref="E16" r:id="rId5" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060347R0FKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrhoblLKFEK8CQCNxM7NutJA%3D%3D"/>
+    <hyperlink ref="E17:E21" r:id="rId6" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060347R0FKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrhoblLKFEK8CQCNxM7NutJA%3D%3D"/>
+    <hyperlink ref="B31" r:id="rId7" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Wurth-Elektronik/61300411121?qs=sGAEpiMZZMs%252BGHln7q6pm%2FFhW%252BtWvhAg9r7Y4H%252BNJ%2FdvSMSK556SDg%3D%3D"/>
+    <hyperlink ref="B32" r:id="rId8" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Wurth-Elektronik/61300411121?qs=sGAEpiMZZMs%252BGHln7q6pm%2FFhW%252BtWvhAg9r7Y4H%252BNJ%2FdvSMSK556SDg%3D%3D"/>
+    <hyperlink ref="B33" r:id="rId9" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Wurth-Elektronik/61300411121?qs=sGAEpiMZZMs%252BGHln7q6pm%2FFhW%252BtWvhAg9r7Y4H%252BNJ%2FdvSMSK556SDg%3D%3D"/>
+    <hyperlink ref="E22" r:id="rId10" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603100RFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSr%2F1WJ0PLlRmdavGsLL3Hxnw%3D%3D"/>
+    <hyperlink ref="E23:E27" r:id="rId11" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603100RFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSr%2F1WJ0PLlRmdavGsLL3Hxnw%3D%3D"/>
+    <hyperlink ref="E28" r:id="rId12" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603330RFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrowBbIoHWjcc7cN5eYmlM4Q%3D%3D"/>
+    <hyperlink ref="E29" r:id="rId13" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603330RFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrowBbIoHWjcc7cN5eYmlM4Q%3D%3D"/>
+    <hyperlink ref="E38" r:id="rId14" display="https://www.mouser.com/ProductDetail/603-CC603KRX7R8BB104"/>
+    <hyperlink ref="E34" r:id="rId15" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603100KFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSraqX7py72DYGW23emt3TZgQ%3D%3D"/>
+    <hyperlink ref="E35:E37" r:id="rId16" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW0603100KFKEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSraqX7py72DYGW23emt3TZgQ%3D%3D"/>
+    <hyperlink ref="E39:E41" r:id="rId17" display="https://www.mouser.com/ProductDetail/603-CC603KRX7R8BB104"/>
+    <hyperlink ref="E42:E66" r:id="rId18" display="https://www.mouser.com/ProductDetail/603-CC603KRX7R8BB104"/>
+    <hyperlink ref="E67" r:id="rId19" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Vishay-Dale/CRCW060310K0JNEAC?qs=sGAEpiMZZMu61qfTUdNhG9bvwnXh9sSrBr05dW3Gri4EedUE4k3xdQ%3D%3D"/>
+    <hyperlink ref="E95" r:id="rId20" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
+    <hyperlink ref="E96:E103" r:id="rId21" display="https://www.mouser.com/ProductDetail/81-GRM188R61A106KE9J"/>
+    <hyperlink ref="E71" r:id="rId22" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
+    <hyperlink ref="E74" r:id="rId23" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KOA-Speer/RN73R1JTTD1002D25?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIEpQ3K4Kb95vbrfiJbdI8ig%3D%3D"/>
+    <hyperlink ref="E125" r:id="rId24" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
+    <hyperlink ref="B125" r:id="rId25" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18PG121SN1D?qs=sGAEpiMZZMtdyQheitOmRWLNemz3bbC1JO1DcIS3iy4%3D"/>
+    <hyperlink ref="E104" r:id="rId26" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
+    <hyperlink ref="E105:E106" r:id="rId27" display="https://www.mouser.com/ProductDetail/81-GRM188R61E106KA3J"/>
+    <hyperlink ref="E123" r:id="rId28" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
+    <hyperlink ref="E124" r:id="rId29" display="https://www.mouser.com/ProductDetail/833-BC847A-TP"/>
+    <hyperlink ref="E110" r:id="rId30" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/United-Chemi-Con/EMZR250ARA221MF80G?qs=sGAEpiMZZMtZ1n0r9vR22cpFQt4dfSbqZYz5q3TnWgoU%252BtPPG%2FA%252BpQ%3D%3D"/>
+    <hyperlink ref="E115" r:id="rId31" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Harwin/M50-3600542R?qs=sGAEpiMZZMs%252BGHln7q6pmyHs2%2FzFXI%252B8ML4%2FvggiFCQ%3D"/>
+    <hyperlink ref="E118" r:id="rId32" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D7322V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZMUV3VPZDflqA9yPKMTVJAg%3D%3D"/>
+    <hyperlink ref="E117" r:id="rId33" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Panasonic/ERJ-PB3D4532V?qs=sGAEpiMZZMu61qfTUdNhG3eCjCAbg%2FKZobIku8tWjsckwJLr0qgB%252Bg%3D%3D"/>
+    <hyperlink ref="E122" r:id="rId34" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
+    <hyperlink ref="B122" r:id="rId35" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Omron-Electronics/B3F-3120?qs=sGAEpiMZZMsgGjVA3toVBLOYoGzF1EI%252B2Nefbt8SwS8%3D"/>
+    <hyperlink ref="E107" r:id="rId36" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
+    <hyperlink ref="E108" r:id="rId37" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Yageo/RC0603FR-0712KL?qs=sGAEpiMZZMu61qfTUdNhG5eFuApKbqVdgfbTkB8L%252BsI%3D"/>
+    <hyperlink ref="E114" r:id="rId38" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
+    <hyperlink ref="E113" r:id="rId39" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CRGCQ0603F2K2?qs=sGAEpiMZZMu61qfTUdNhG%2FMZXHif3NbIs1CxWEp0l64a1l0k5cAfSw%3D%3D"/>
+    <hyperlink ref="E109" r:id="rId40" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0603C102M5RACTU?qs=sGAEpiMZZMvsSlwiRhF8quIsB1QHp5lfzVgJ8s9yKto%3D"/>
+    <hyperlink ref="E111" r:id="rId41" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
+    <hyperlink ref="E112" r:id="rId42" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/KEMET/C0402C220J5GAC7411?qs=sGAEpiMZZMvsSlwiRhF8qi01QES9zePE3QxtCw%252BtaU8%3D"/>
+    <hyperlink ref="E116" r:id="rId43" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Epson-Timing/FC-135-327680KA-A3?qs=sGAEpiMZZMsBj6bBr9Q9aZLqXgWtLYAXgtkp1R7gwzo%3D"/>
+    <hyperlink ref="E144" r:id="rId44" display="https://www.mouser.com/ProductDetail/634-CP2101-GM"/>
+    <hyperlink ref="E148" r:id="rId45" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
+    <hyperlink ref="E149:E158" r:id="rId46" display="https://www.mouser.com/ProductDetail/512-FDN306P"/>
+    <hyperlink ref="E146" r:id="rId47" display="https://www.mouser.com/ProductDetail/200-CES10601TD"/>
+    <hyperlink ref="E145" r:id="rId48" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Espressif-Systems/ESP32-WROOM-32?qs=sGAEpiMZZMve4%2FbfQkoj%252BErywZNi%252BCNNpLVbrj2524g%3D"/>
+    <hyperlink ref="E147" r:id="rId49" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/TE-Connectivity-AMP/640456-2?qs=sGAEpiMZZMs%252BGHln7q6pm5E1Eb6qwPl2BxUqTDN3Uy8%3D"/>
+    <hyperlink ref="E163" r:id="rId50" display="https://www.mouser.com/ProductDetail/771-PCA9509DP-T"/>
+    <hyperlink ref="E159" r:id="rId51" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Samtec/HTMS-103-03-T-D-SM?qs=sGAEpiMZZMs%252BGHln7q6pm8Vn94ktop%2FJwkA9Cul8GAs51XmBHy%252BvZw%3D%3D"/>
+    <hyperlink ref="E161" r:id="rId52" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
+    <hyperlink ref="B161" r:id="rId53" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Lite-On/LTL2R3KGD-EM?qs=sGAEpiMZZMtmwHDZQCdlqY3QuPVQdrfivxVgVo2hFbg%3D"/>
+    <hyperlink ref="E162" r:id="rId54" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Texas-Instruments/P82B715DR?qs=sGAEpiMZZMvh4wEfREVcMetP3USUg3bc"/>
+    <hyperlink ref="E164" r:id="rId55" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/NXP-Semiconductors/PCA9555PW112?qs=sGAEpiMZZMuFG5L82Zqpsk%252BwjZZ2KBJ9EgF1hfNePOM%3D"/>
+    <hyperlink ref="E165" r:id="rId56" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E166" r:id="rId57" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E167" r:id="rId58" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E168" r:id="rId59" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Nexperia/PESD1CAN-UX?qs=sGAEpiMZZMsoIvTP6m9%252Bn17u26dJac3S"/>
+    <hyperlink ref="E170" r:id="rId60" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/CUI/PJ-031C?qs=sGAEpiMZZMtnOp%252BbbqA009lE0K0K%252BPZGcznN0OxEtNpNltqiE7by2Q%3D%3D"/>
+    <hyperlink ref="E176" r:id="rId61" display="https://www.mouser.com/ProductDetail/538-105133-0001"/>
+    <hyperlink ref="E174" r:id="rId62" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
+    <hyperlink ref="E175" r:id="rId63" tooltip="Click to view additional information on this product." display="https://www.mouser.com/ProductDetail/Laird-Performance-Materials/TYS60451R5N-10?qs=sGAEpiMZZMtqO%252BWUGLBzeMAbACM12o3AvZUo4rhX96g%3D"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8608,22 +13266,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9524,13 +14182,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9902,12 +14558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9917,82 +14573,135 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>66.819999999999993</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <f>C6/B6</f>
         <v>66.819999999999993</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>30</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>1520.08</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <f t="shared" ref="D7:D9" si="0">C7/B7</f>
         <v>50.669333333333334</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>50</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>2235.75</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>44.715000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>100</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <v>4016.9</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="25">
         <f t="shared" si="0"/>
         <v>40.169000000000004</v>
       </c>
     </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1380</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" ref="D13:D14" si="1">C13/B13</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23">
+        <v>50</v>
+      </c>
+      <c r="C14" s="24">
+        <v>2240</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B209"/>
   <sheetViews>
@@ -11690,7 +16399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11710,7 +16419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
